--- a/RELEASE/Liberacion/VMRAM-FPP.xlsx
+++ b/RELEASE/Liberacion/VMRAM-FPP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>JEFE DE PROYECTO:</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>ITEM Scripts</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -290,6 +293,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,61 +366,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,14 +757,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,12 +772,12 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -789,10 +798,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -806,7 +815,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -819,9 +828,9 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -842,14 +851,14 @@
     </row>
     <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5" t="s">
         <v>8</v>
@@ -859,9 +868,9 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -872,17 +881,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,12 +899,12 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -905,47 +914,47 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -954,11 +963,13 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -969,274 +980,274 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="39"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="B20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="31"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="39"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="12">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="31"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="12">
-        <v>2</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="39"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="12">
-        <v>1</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
+      <c r="B28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="31"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="12">
-        <v>2</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="39"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="B32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="31"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="12">
-        <v>2</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="B34" s="12">
+        <v>2</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,10 +1265,8 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="27"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1269,67 +1278,69 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1362,16 +1373,12 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="22"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
@@ -1379,12 +1386,16 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="40"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
@@ -1414,46 +1425,59 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="E3:J4"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B38:J41"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B37:J40"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="E3:J4"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
